--- a/706-3-Slivove-Asllani-leg/5-Njësite-banesore/regjistri/16-Regjistri-për-ndërtesë-me-pjesë-të-ndërtesës-706-3-Slivove-Asllani-leg.xlsx
+++ b/706-3-Slivove-Asllani-leg/5-Njësite-banesore/regjistri/16-Regjistri-për-ndërtesë-me-pjesë-të-ndërtesës-706-3-Slivove-Asllani-leg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Greme\Ingjinjerike\173-4-Greme-Ademi\5-Njësite-banesore\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Slivovë\KADASTRALE\Agoni-Slivovë\706-3-Slivove-Asllani-leg\5-Njësite-banesore\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Nr</t>
   </si>
@@ -238,40 +238,49 @@
     <t>Shtëpi</t>
   </si>
   <si>
-    <t>Greme</t>
-  </si>
-  <si>
-    <t>00173-4-_____-0</t>
-  </si>
-  <si>
     <t>N    D    Ë    R    T    E    S    A                    00173-4-_____-0</t>
   </si>
   <si>
-    <t>Rr.  "Renosansa"</t>
-  </si>
-  <si>
-    <t>GRABOC</t>
-  </si>
-  <si>
-    <t>Adem (Ilaz) Sejdiu</t>
-  </si>
-  <si>
-    <t>Rr. "Renosansa ", 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  00173-4-___-0-1-1-0</t>
-  </si>
-  <si>
-    <t>00173-4-___-0-1-2-0</t>
-  </si>
-  <si>
-    <t>00173-4-___-0-1-3-0</t>
-  </si>
-  <si>
-    <t>00173-4-___-0-1-4-0</t>
-  </si>
-  <si>
-    <t>fsh. Greme-Ferizaj</t>
+    <t>Slivovë</t>
+  </si>
+  <si>
+    <t>00706-3-_____-0</t>
+  </si>
+  <si>
+    <t>Rr."Nezir Behluli"</t>
+  </si>
+  <si>
+    <t>Rr."Nezir Behluli",</t>
+  </si>
+  <si>
+    <t>PJESË E KOPSHTIT</t>
+  </si>
+  <si>
+    <t>Asllan (Adem) Sejdiu</t>
+  </si>
+  <si>
+    <t>fsh. Slivovë-Ferizaj</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>O-00706-3-____-0-1-1-0</t>
+  </si>
+  <si>
+    <t>O-00706-3-____-0-1-2-0</t>
+  </si>
+  <si>
+    <t>O-00706-3-____-0-1-3-0</t>
+  </si>
+  <si>
+    <t>O-00706-3-____-0-1-4-0</t>
+  </si>
+  <si>
+    <t>O-00706-3-____-0-1-5-0</t>
+  </si>
+  <si>
+    <t>O-00706-3-____-0-1-6-0</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -823,24 +832,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -854,7 +845,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -864,13 +855,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -954,16 +943,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,7 +964,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,136 +1102,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1167,8 +1156,8 @@
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1188982</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -1512,10 +1501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q28"/>
+  <dimension ref="B1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,246 +1527,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="59"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="65"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="68"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="71"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="74"/>
-    </row>
-    <row r="14" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
+    </row>
+    <row r="14" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
@@ -1790,18 +1779,18 @@
       <c r="E14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="39" t="s">
+      <c r="I14" s="57"/>
+      <c r="J14" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="11" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>1</v>
       </c>
@@ -1829,99 +1818,99 @@
         <v>26</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="34">
-        <v>72.03</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="70">
+        <v>107.41</v>
+      </c>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="42"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="78"/>
       <c r="L15" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" s="17">
-        <v>1004577058</v>
+        <v>1006885914</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="74"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="86"/>
+      <c r="B17" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="47"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="31" t="s">
         <v>6</v>
       </c>
@@ -1951,223 +1940,275 @@
       <c r="B19" s="25">
         <v>1</v>
       </c>
-      <c r="C19" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
+      <c r="C19" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="26">
         <v>1</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="48">
-        <v>22.36</v>
-      </c>
-      <c r="I19" s="49"/>
+      <c r="H19" s="79">
+        <v>5.35</v>
+      </c>
+      <c r="I19" s="80"/>
       <c r="J19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="26">
-        <v>52</v>
+      <c r="K19" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>27</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O19" s="26">
-        <v>1004577058</v>
+        <v>1006885914</v>
       </c>
       <c r="P19" s="28" t="s">
         <v>8</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+      <c r="B20" s="25">
         <v>2</v>
       </c>
-      <c r="C20" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
+      <c r="C20" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="26">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="48">
-        <v>49.67</v>
-      </c>
-      <c r="I20" s="49"/>
+      <c r="H20" s="65">
+        <v>17.29</v>
+      </c>
+      <c r="I20" s="66"/>
       <c r="J20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="26">
-        <v>52</v>
+      <c r="K20" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="27" t="s">
         <v>27</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O20" s="26">
-        <v>1004577058</v>
+        <v>1006885914</v>
       </c>
       <c r="P20" s="28" t="s">
         <v>8</v>
       </c>
       <c r="Q20" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>3</v>
       </c>
-      <c r="C21" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
+      <c r="C21" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="26">
         <v>1</v>
       </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="48">
-        <v>15.88</v>
-      </c>
-      <c r="I21" s="49"/>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="65">
+        <v>84.76</v>
+      </c>
+      <c r="I21" s="66"/>
       <c r="J21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="26">
-        <v>52</v>
+      <c r="K21" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O21" s="26">
-        <v>1004577058</v>
+        <v>1006885914</v>
       </c>
       <c r="P21" s="28" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+      <c r="B22" s="25">
         <v>4</v>
       </c>
-      <c r="C22" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
+      <c r="C22" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="26">
         <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="48">
-        <v>67.39</v>
-      </c>
-      <c r="I22" s="49"/>
+      <c r="H22" s="65">
+        <v>21.24</v>
+      </c>
+      <c r="I22" s="66"/>
       <c r="J22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="26">
-        <v>52</v>
+      <c r="K22" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O22" s="26">
-        <v>1004577058</v>
+        <v>1006885914</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>8</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="6"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="25">
+        <v>5</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="26">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="65">
+        <v>67.89</v>
+      </c>
+      <c r="I23" s="66"/>
+      <c r="J23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="26">
+        <v>1006885914</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="25">
+        <v>6</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="65">
+        <v>4.92</v>
+      </c>
+      <c r="I24" s="66"/>
+      <c r="J24" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="26">
+        <v>1006885914</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2177,63 +2218,103 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L28" s="7"/>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="B1:Q10"/>
     <mergeCell ref="B11:Q11"/>
     <mergeCell ref="B12:Q12"/>
     <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
